--- a/TestScriptWeb/Data/DataExcel/bldatafile.xlsx
+++ b/TestScriptWeb/Data/DataExcel/bldatafile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HUFLIT\1. BDCLPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 BDCLPM\TestScriptWeb\TestScriptWeb\Data\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AD107-2AE8-457B-B466-D69F543B899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7D6AF-8260-4AAA-9E86-64CECE10816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{638FDE52-D2E9-4790-A18E-95F10962B5AF}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestScriptWeb/Data/DataExcel/bldatafile.xlsx
+++ b/TestScriptWeb/Data/DataExcel/bldatafile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 BDCLPM\TestScriptWeb\TestScriptWeb\Data\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7D6AF-8260-4AAA-9E86-64CECE10816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF038DC-6677-4750-9AE3-CA4AD1C20FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{638FDE52-D2E9-4790-A18E-95F10962B5AF}"/>
   </bookViews>
@@ -34,11 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>BinhLuan</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>asdasd</t>
   </si>
   <si>
@@ -52,6 +55,12 @@
   </si>
   <si>
     <t>_aposdjpwhdiphapsfbpb123123123123123</t>
+  </si>
+  <si>
+    <t>cmt khong thanh cong</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -124,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,57 +454,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8363C609-1934-4A46-BECB-958AE20333DD}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>123123</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{121A6768-D326-48CD-AF9E-ED07699030F1}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>